--- a/insight7.xlsx
+++ b/insight7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="141">
   <si>
     <t>Film</t>
   </si>
@@ -46,7 +46,7 @@
     <t>Bắc Kim Thang</t>
   </si>
   <si>
-    <t>Cà Chớn, Anh Đừng Đi</t>
+    <t>Cà Chớn Anh Đừng Đi</t>
   </si>
   <si>
     <t>Cậu Chủ Ma Cà Rồng</t>
@@ -100,7 +100,7 @@
     <t>Những Cánh Én Đầu Tiên</t>
   </si>
   <si>
-    <t>Oppa, Phiền Quá Nha!</t>
+    <t>Oppa Phiền Quá Nha</t>
   </si>
   <si>
     <t>Pháp Sư Mù</t>
@@ -133,7 +133,7 @@
     <t>Trạng Quỳnh</t>
   </si>
   <si>
-    <t>Trời Sáng Rồi, Ta Ngủ Đi Thôi</t>
+    <t>Trời Sáng Rồi Ta Ngủ Đi Thôi</t>
   </si>
   <si>
     <t>Truyện Ngắn</t>
@@ -232,7 +232,7 @@
     <t>Em Là Của Em</t>
   </si>
   <si>
-    <t>Gái Già Lắm Chiêu V &amp;#8211; Những Cuộc Đời Vương Giả</t>
+    <t>Gái Già Lắm Chiêu V Những Cuộc Đời Vương Giả</t>
   </si>
   <si>
     <t>Kiều</t>
@@ -250,6 +250,9 @@
     <t>Thiên Thần Hộ Mệnh</t>
   </si>
   <si>
+    <t>1990a</t>
+  </si>
+  <si>
     <t>578: Phát Đạn Của Kẻ Điên</t>
   </si>
   <si>
@@ -274,7 +277,7 @@
     <t>Dân Chơi Không Sợ Con Rơi</t>
   </si>
   <si>
-    <t>Đảo Độc Đắc &amp;#8211; Tử Mẫu Thiên Linh Cái</t>
+    <t>Đảo Độc Đắc Tử Mẫu Thiên Linh Cái</t>
   </si>
   <si>
     <t>Đêm Tối Rực Rỡ</t>
@@ -283,7 +286,7 @@
     <t>Duyên Ma</t>
   </si>
   <si>
-    <t>Ê Ông Già Yêu Ha!</t>
+    <t>Ê Ông Già Yêu Ha</t>
   </si>
   <si>
     <t>Em và Trịnh</t>
@@ -301,7 +304,7 @@
     <t>Là Mây Trên Bầu Trời Của Ai Đó</t>
   </si>
   <si>
-    <t>Maika &amp;#8211; Cô Bé Đến Từ Hành Tinh Khác</t>
+    <t>Maika Cô Bé Đến Từ Hành Tinh Khác</t>
   </si>
   <si>
     <t>Mến Gái Miền Tây</t>
@@ -406,7 +409,7 @@
     <t>Án Mạng Lầu 4</t>
   </si>
   <si>
-    <t>B4S &amp;#8211; Trước Giờ Yêu</t>
+    <t>Trước Giờ Yêu</t>
   </si>
   <si>
     <t>Cái Giá Của Hạnh Phúc</t>
@@ -791,7 +794,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G135"/>
+  <dimension ref="A1:G136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -894,22 +897,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>201</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1078,22 +1081,22 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>1989</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>2300</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>2372</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2243</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>2289</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1308,22 +1311,22 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1561,22 +1564,22 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2320,22 +2323,22 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>2144</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>2087</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>1098</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1089</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2458,22 +2461,22 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>1447</v>
+        <v>1175</v>
       </c>
       <c r="C73">
-        <v>1305</v>
+        <v>1230</v>
       </c>
       <c r="D73">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="E73">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="F73">
-        <v>344</v>
+        <v>427</v>
       </c>
       <c r="G73">
-        <v>319</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2481,22 +2484,22 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>890</v>
+        <v>1447</v>
       </c>
       <c r="C74">
-        <v>994</v>
+        <v>1305</v>
       </c>
       <c r="D74">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="E74">
-        <v>1770</v>
+        <v>342</v>
       </c>
       <c r="F74">
-        <v>1934</v>
+        <v>344</v>
       </c>
       <c r="G74">
-        <v>2060</v>
+        <v>319</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2504,22 +2507,22 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>2200</v>
+        <v>890</v>
       </c>
       <c r="C75">
-        <v>2530</v>
+        <v>994</v>
       </c>
       <c r="D75">
-        <v>2779</v>
+        <v>1214</v>
       </c>
       <c r="E75">
-        <v>1412</v>
+        <v>1770</v>
       </c>
       <c r="F75">
-        <v>1509</v>
+        <v>1934</v>
       </c>
       <c r="G75">
-        <v>1665</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2527,22 +2530,22 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>1738</v>
+        <v>2200</v>
       </c>
       <c r="C76">
-        <v>1804</v>
+        <v>2530</v>
       </c>
       <c r="D76">
-        <v>1876</v>
+        <v>2779</v>
       </c>
       <c r="E76">
-        <v>947</v>
+        <v>1412</v>
       </c>
       <c r="F76">
-        <v>823</v>
+        <v>1509</v>
       </c>
       <c r="G76">
-        <v>567</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2550,22 +2553,22 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>2441</v>
+        <v>1738</v>
       </c>
       <c r="C77">
-        <v>2898</v>
+        <v>1804</v>
       </c>
       <c r="D77">
-        <v>2946</v>
+        <v>1876</v>
       </c>
       <c r="E77">
-        <v>919</v>
+        <v>947</v>
       </c>
       <c r="F77">
-        <v>904</v>
+        <v>823</v>
       </c>
       <c r="G77">
-        <v>934</v>
+        <v>567</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2573,22 +2576,22 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>3122</v>
+        <v>2441</v>
       </c>
       <c r="C78">
-        <v>3373</v>
+        <v>2898</v>
       </c>
       <c r="D78">
-        <v>3428</v>
+        <v>2946</v>
       </c>
       <c r="E78">
-        <v>1382</v>
+        <v>919</v>
       </c>
       <c r="F78">
-        <v>1183</v>
+        <v>904</v>
       </c>
       <c r="G78">
-        <v>1298</v>
+        <v>934</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2596,22 +2599,22 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>2058</v>
+        <v>3122</v>
       </c>
       <c r="C79">
-        <v>1901</v>
+        <v>3373</v>
       </c>
       <c r="D79">
-        <v>1742</v>
+        <v>3428</v>
       </c>
       <c r="E79">
-        <v>414</v>
+        <v>1382</v>
       </c>
       <c r="F79">
-        <v>464</v>
+        <v>1183</v>
       </c>
       <c r="G79">
-        <v>429</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2619,22 +2622,22 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>1738</v>
+        <v>2058</v>
       </c>
       <c r="C80">
-        <v>1854</v>
+        <v>1901</v>
       </c>
       <c r="D80">
-        <v>1957</v>
+        <v>1742</v>
       </c>
       <c r="E80">
-        <v>1363</v>
+        <v>414</v>
       </c>
       <c r="F80">
-        <v>1525</v>
+        <v>464</v>
       </c>
       <c r="G80">
-        <v>1578</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2642,22 +2645,22 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>1738</v>
       </c>
       <c r="C81">
-        <v>0</v>
+        <v>1854</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1957</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1363</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1525</v>
       </c>
       <c r="G81">
-        <v>0</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2665,22 +2668,22 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>849</v>
+        <v>1087</v>
       </c>
       <c r="C82">
-        <v>825</v>
+        <v>1010</v>
       </c>
       <c r="D82">
-        <v>902</v>
+        <v>1143</v>
       </c>
       <c r="E82">
-        <v>586</v>
+        <v>531</v>
       </c>
       <c r="F82">
-        <v>729</v>
+        <v>499</v>
       </c>
       <c r="G82">
-        <v>802</v>
+        <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2688,22 +2691,22 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>928</v>
+        <v>849</v>
       </c>
       <c r="C83">
-        <v>973</v>
+        <v>825</v>
       </c>
       <c r="D83">
-        <v>1004</v>
+        <v>902</v>
       </c>
       <c r="E83">
-        <v>314</v>
+        <v>586</v>
       </c>
       <c r="F83">
-        <v>346</v>
+        <v>729</v>
       </c>
       <c r="G83">
-        <v>375</v>
+        <v>802</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2711,22 +2714,22 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>182</v>
+        <v>928</v>
       </c>
       <c r="C84">
-        <v>181</v>
+        <v>973</v>
       </c>
       <c r="D84">
-        <v>157</v>
+        <v>1004</v>
       </c>
       <c r="E84">
-        <v>16</v>
+        <v>314</v>
       </c>
       <c r="F84">
-        <v>12</v>
+        <v>346</v>
       </c>
       <c r="G84">
-        <v>12</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2734,22 +2737,22 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>723</v>
+        <v>182</v>
       </c>
       <c r="C85">
-        <v>2201</v>
+        <v>181</v>
       </c>
       <c r="D85">
-        <v>2300</v>
+        <v>157</v>
       </c>
       <c r="E85">
-        <v>2753</v>
+        <v>16</v>
       </c>
       <c r="F85">
-        <v>2773</v>
+        <v>12</v>
       </c>
       <c r="G85">
-        <v>2829</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2757,22 +2760,22 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>1011</v>
+        <v>723</v>
       </c>
       <c r="C86">
-        <v>1226</v>
+        <v>2201</v>
       </c>
       <c r="D86">
-        <v>1138</v>
+        <v>2300</v>
       </c>
       <c r="E86">
-        <v>675</v>
+        <v>2753</v>
       </c>
       <c r="F86">
-        <v>1154</v>
+        <v>2773</v>
       </c>
       <c r="G86">
-        <v>1277</v>
+        <v>2829</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2780,22 +2783,22 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>95</v>
+        <v>1011</v>
       </c>
       <c r="C87">
-        <v>90</v>
+        <v>1226</v>
       </c>
       <c r="D87">
-        <v>90</v>
+        <v>1138</v>
       </c>
       <c r="E87">
-        <v>2</v>
+        <v>675</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>1154</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2803,22 +2806,22 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="C88">
-        <v>293</v>
+        <v>90</v>
       </c>
       <c r="D88">
-        <v>305</v>
+        <v>90</v>
       </c>
       <c r="E88">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="F88">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2826,22 +2829,22 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>537</v>
+        <v>318</v>
       </c>
       <c r="C89">
-        <v>511</v>
+        <v>293</v>
       </c>
       <c r="D89">
-        <v>497</v>
+        <v>305</v>
       </c>
       <c r="E89">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="F89">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G89">
-        <v>32</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2849,22 +2852,22 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="D90">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>32</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2872,22 +2875,22 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>908</v>
+        <v>640</v>
       </c>
       <c r="C91">
-        <v>851</v>
+        <v>720</v>
       </c>
       <c r="D91">
-        <v>864</v>
+        <v>666</v>
       </c>
       <c r="E91">
-        <v>504</v>
+        <v>469</v>
       </c>
       <c r="F91">
-        <v>577</v>
+        <v>425</v>
       </c>
       <c r="G91">
-        <v>596</v>
+        <v>471</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2895,22 +2898,22 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>1763</v>
+        <v>908</v>
       </c>
       <c r="C92">
-        <v>1861</v>
+        <v>851</v>
       </c>
       <c r="D92">
-        <v>1884</v>
+        <v>864</v>
       </c>
       <c r="E92">
-        <v>713</v>
+        <v>504</v>
       </c>
       <c r="F92">
-        <v>872</v>
+        <v>577</v>
       </c>
       <c r="G92">
-        <v>941</v>
+        <v>596</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2918,22 +2921,22 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>242</v>
+        <v>1763</v>
       </c>
       <c r="C93">
-        <v>231</v>
+        <v>1861</v>
       </c>
       <c r="D93">
-        <v>231</v>
+        <v>1884</v>
       </c>
       <c r="E93">
-        <v>53</v>
+        <v>713</v>
       </c>
       <c r="F93">
-        <v>56</v>
+        <v>872</v>
       </c>
       <c r="G93">
-        <v>56</v>
+        <v>941</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2941,22 +2944,22 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>168</v>
+        <v>242</v>
       </c>
       <c r="C94">
-        <v>143</v>
+        <v>231</v>
       </c>
       <c r="D94">
-        <v>31</v>
+        <v>231</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2964,22 +2967,22 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>2643</v>
+        <v>168</v>
       </c>
       <c r="C95">
-        <v>2828</v>
+        <v>143</v>
       </c>
       <c r="D95">
-        <v>3050</v>
+        <v>31</v>
       </c>
       <c r="E95">
-        <v>841</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>824</v>
+        <v>0</v>
       </c>
       <c r="G95">
-        <v>867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2987,22 +2990,22 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>710</v>
+        <v>2643</v>
       </c>
       <c r="C96">
-        <v>728</v>
+        <v>2828</v>
       </c>
       <c r="D96">
-        <v>719</v>
+        <v>3050</v>
       </c>
       <c r="E96">
-        <v>112</v>
+        <v>841</v>
       </c>
       <c r="F96">
-        <v>112</v>
+        <v>824</v>
       </c>
       <c r="G96">
-        <v>118</v>
+        <v>867</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3010,68 +3013,68 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>795</v>
+        <v>710</v>
       </c>
       <c r="C97">
-        <v>922</v>
+        <v>728</v>
       </c>
       <c r="D97">
-        <v>1010</v>
+        <v>719</v>
       </c>
       <c r="E97">
-        <v>499</v>
+        <v>112</v>
       </c>
       <c r="F97">
-        <v>414</v>
+        <v>112</v>
       </c>
       <c r="G97">
-        <v>337</v>
+        <v>118</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>288</v>
+        <v>795</v>
       </c>
       <c r="C98">
-        <v>271</v>
+        <v>922</v>
       </c>
       <c r="D98">
-        <v>260</v>
+        <v>1010</v>
       </c>
       <c r="E98">
-        <v>51</v>
+        <v>499</v>
       </c>
       <c r="F98">
-        <v>47</v>
+        <v>414</v>
       </c>
       <c r="G98">
-        <v>42</v>
+        <v>337</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="B99">
-        <v>580</v>
+        <v>288</v>
       </c>
       <c r="C99">
-        <v>514</v>
+        <v>271</v>
       </c>
       <c r="D99">
-        <v>515</v>
+        <v>260</v>
       </c>
       <c r="E99">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="F99">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="G99">
-        <v>68</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3079,22 +3082,22 @@
         <v>104</v>
       </c>
       <c r="B100">
-        <v>2037</v>
+        <v>580</v>
       </c>
       <c r="C100">
-        <v>1741</v>
+        <v>514</v>
       </c>
       <c r="D100">
-        <v>1738</v>
+        <v>515</v>
       </c>
       <c r="E100">
-        <v>1105</v>
+        <v>66</v>
       </c>
       <c r="F100">
-        <v>1087</v>
+        <v>65</v>
       </c>
       <c r="G100">
-        <v>1080</v>
+        <v>68</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3102,22 +3105,22 @@
         <v>105</v>
       </c>
       <c r="B101">
-        <v>1506</v>
+        <v>2037</v>
       </c>
       <c r="C101">
-        <v>1765</v>
+        <v>1741</v>
       </c>
       <c r="D101">
-        <v>1763</v>
+        <v>1738</v>
       </c>
       <c r="E101">
-        <v>4</v>
+        <v>1105</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1087</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3125,22 +3128,22 @@
         <v>106</v>
       </c>
       <c r="B102">
-        <v>340</v>
+        <v>1506</v>
       </c>
       <c r="C102">
-        <v>415</v>
+        <v>1765</v>
       </c>
       <c r="D102">
-        <v>468</v>
+        <v>1763</v>
       </c>
       <c r="E102">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="F102">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="G102">
-        <v>32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3148,22 +3151,22 @@
         <v>107</v>
       </c>
       <c r="B103">
-        <v>508</v>
+        <v>340</v>
       </c>
       <c r="C103">
-        <v>1021</v>
+        <v>415</v>
       </c>
       <c r="D103">
-        <v>1024</v>
+        <v>468</v>
       </c>
       <c r="E103">
-        <v>408</v>
+        <v>35</v>
       </c>
       <c r="F103">
-        <v>448</v>
+        <v>26</v>
       </c>
       <c r="G103">
-        <v>459</v>
+        <v>32</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3171,22 +3174,22 @@
         <v>108</v>
       </c>
       <c r="B104">
-        <v>154</v>
+        <v>508</v>
       </c>
       <c r="C104">
-        <v>146</v>
+        <v>1021</v>
       </c>
       <c r="D104">
-        <v>164</v>
+        <v>1024</v>
       </c>
       <c r="E104">
-        <v>27</v>
+        <v>408</v>
       </c>
       <c r="F104">
-        <v>28</v>
+        <v>448</v>
       </c>
       <c r="G104">
-        <v>34</v>
+        <v>459</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3194,22 +3197,22 @@
         <v>109</v>
       </c>
       <c r="B105">
-        <v>1537</v>
+        <v>154</v>
       </c>
       <c r="C105">
-        <v>1515</v>
+        <v>146</v>
       </c>
       <c r="D105">
-        <v>1577</v>
+        <v>164</v>
       </c>
       <c r="E105">
-        <v>489</v>
+        <v>27</v>
       </c>
       <c r="F105">
-        <v>448</v>
+        <v>28</v>
       </c>
       <c r="G105">
-        <v>374</v>
+        <v>34</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3217,22 +3220,22 @@
         <v>110</v>
       </c>
       <c r="B106">
-        <v>771</v>
+        <v>1537</v>
       </c>
       <c r="C106">
-        <v>784</v>
+        <v>1515</v>
       </c>
       <c r="D106">
-        <v>735</v>
+        <v>1577</v>
       </c>
       <c r="E106">
-        <v>206</v>
+        <v>489</v>
       </c>
       <c r="F106">
-        <v>198</v>
+        <v>448</v>
       </c>
       <c r="G106">
-        <v>184</v>
+        <v>374</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3240,22 +3243,22 @@
         <v>111</v>
       </c>
       <c r="B107">
-        <v>181</v>
+        <v>771</v>
       </c>
       <c r="C107">
-        <v>193</v>
+        <v>784</v>
       </c>
       <c r="D107">
-        <v>182</v>
+        <v>735</v>
       </c>
       <c r="E107">
-        <v>64</v>
+        <v>206</v>
       </c>
       <c r="F107">
-        <v>61</v>
+        <v>198</v>
       </c>
       <c r="G107">
-        <v>60</v>
+        <v>184</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3263,22 +3266,22 @@
         <v>112</v>
       </c>
       <c r="B108">
-        <v>332</v>
+        <v>181</v>
       </c>
       <c r="C108">
-        <v>335</v>
+        <v>193</v>
       </c>
       <c r="D108">
-        <v>320</v>
+        <v>182</v>
       </c>
       <c r="E108">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="F108">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="G108">
-        <v>135</v>
+        <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3286,22 +3289,22 @@
         <v>113</v>
       </c>
       <c r="B109">
-        <v>1334</v>
+        <v>332</v>
       </c>
       <c r="C109">
-        <v>1384</v>
+        <v>335</v>
       </c>
       <c r="D109">
-        <v>1418</v>
+        <v>320</v>
       </c>
       <c r="E109">
-        <v>1100</v>
+        <v>140</v>
       </c>
       <c r="F109">
-        <v>1148</v>
+        <v>144</v>
       </c>
       <c r="G109">
-        <v>1218</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3309,22 +3312,22 @@
         <v>114</v>
       </c>
       <c r="B110">
-        <v>902</v>
+        <v>1334</v>
       </c>
       <c r="C110">
-        <v>1923</v>
+        <v>1384</v>
       </c>
       <c r="D110">
-        <v>2003</v>
+        <v>1418</v>
       </c>
       <c r="E110">
-        <v>1403</v>
+        <v>1100</v>
       </c>
       <c r="F110">
-        <v>1499</v>
+        <v>1148</v>
       </c>
       <c r="G110">
-        <v>1557</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3332,22 +3335,22 @@
         <v>115</v>
       </c>
       <c r="B111">
-        <v>1713</v>
+        <v>902</v>
       </c>
       <c r="C111">
-        <v>4700</v>
+        <v>1923</v>
       </c>
       <c r="D111">
-        <v>5127</v>
+        <v>2003</v>
       </c>
       <c r="E111">
-        <v>4514</v>
+        <v>1403</v>
       </c>
       <c r="F111">
-        <v>4471</v>
+        <v>1499</v>
       </c>
       <c r="G111">
-        <v>4700</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3355,22 +3358,22 @@
         <v>116</v>
       </c>
       <c r="B112">
-        <v>1318</v>
+        <v>1713</v>
       </c>
       <c r="C112">
-        <v>1240</v>
+        <v>4700</v>
       </c>
       <c r="D112">
-        <v>1287</v>
+        <v>5127</v>
       </c>
       <c r="E112">
-        <v>320</v>
+        <v>4514</v>
       </c>
       <c r="F112">
-        <v>305</v>
+        <v>4471</v>
       </c>
       <c r="G112">
-        <v>300</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3378,22 +3381,22 @@
         <v>117</v>
       </c>
       <c r="B113">
-        <v>713</v>
+        <v>1318</v>
       </c>
       <c r="C113">
-        <v>728</v>
+        <v>1240</v>
       </c>
       <c r="D113">
-        <v>758</v>
+        <v>1287</v>
       </c>
       <c r="E113">
-        <v>268</v>
+        <v>320</v>
       </c>
       <c r="F113">
-        <v>126</v>
+        <v>305</v>
       </c>
       <c r="G113">
-        <v>129</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3401,22 +3404,22 @@
         <v>118</v>
       </c>
       <c r="B114">
-        <v>2628</v>
+        <v>713</v>
       </c>
       <c r="C114">
-        <v>2821</v>
+        <v>728</v>
       </c>
       <c r="D114">
-        <v>2994</v>
+        <v>758</v>
       </c>
       <c r="E114">
-        <v>2187</v>
+        <v>268</v>
       </c>
       <c r="F114">
-        <v>2381</v>
+        <v>126</v>
       </c>
       <c r="G114">
-        <v>2418</v>
+        <v>129</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3424,22 +3427,22 @@
         <v>119</v>
       </c>
       <c r="B115">
-        <v>3705</v>
+        <v>2628</v>
       </c>
       <c r="C115">
-        <v>3854</v>
+        <v>2821</v>
       </c>
       <c r="D115">
-        <v>4054</v>
+        <v>2994</v>
       </c>
       <c r="E115">
-        <v>2122</v>
+        <v>2187</v>
       </c>
       <c r="F115">
-        <v>1935</v>
+        <v>2381</v>
       </c>
       <c r="G115">
-        <v>1948</v>
+        <v>2418</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3447,22 +3450,22 @@
         <v>120</v>
       </c>
       <c r="B116">
-        <v>950</v>
+        <v>3705</v>
       </c>
       <c r="C116">
-        <v>853</v>
+        <v>3854</v>
       </c>
       <c r="D116">
-        <v>797</v>
+        <v>4054</v>
       </c>
       <c r="E116">
-        <v>251</v>
+        <v>2122</v>
       </c>
       <c r="F116">
-        <v>252</v>
+        <v>1935</v>
       </c>
       <c r="G116">
-        <v>241</v>
+        <v>1948</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3470,22 +3473,22 @@
         <v>121</v>
       </c>
       <c r="B117">
-        <v>3553</v>
+        <v>950</v>
       </c>
       <c r="C117">
-        <v>3805</v>
+        <v>853</v>
       </c>
       <c r="D117">
-        <v>3972</v>
+        <v>797</v>
       </c>
       <c r="E117">
-        <v>3224</v>
+        <v>251</v>
       </c>
       <c r="F117">
-        <v>3316</v>
+        <v>252</v>
       </c>
       <c r="G117">
-        <v>3372</v>
+        <v>241</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3493,22 +3496,22 @@
         <v>122</v>
       </c>
       <c r="B118">
-        <v>3235</v>
+        <v>3553</v>
       </c>
       <c r="C118">
-        <v>3429</v>
+        <v>3805</v>
       </c>
       <c r="D118">
-        <v>3633</v>
+        <v>3972</v>
       </c>
       <c r="E118">
-        <v>2014</v>
+        <v>3224</v>
       </c>
       <c r="F118">
-        <v>2146</v>
+        <v>3316</v>
       </c>
       <c r="G118">
-        <v>2289</v>
+        <v>3372</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3516,22 +3519,22 @@
         <v>123</v>
       </c>
       <c r="B119">
-        <v>3809</v>
+        <v>3235</v>
       </c>
       <c r="C119">
-        <v>4135</v>
+        <v>3429</v>
       </c>
       <c r="D119">
-        <v>4297</v>
+        <v>3633</v>
       </c>
       <c r="E119">
-        <v>3532</v>
+        <v>2014</v>
       </c>
       <c r="F119">
-        <v>3605</v>
+        <v>2146</v>
       </c>
       <c r="G119">
-        <v>3706</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3539,22 +3542,22 @@
         <v>124</v>
       </c>
       <c r="B120">
-        <v>1662</v>
+        <v>3809</v>
       </c>
       <c r="C120">
-        <v>1741</v>
+        <v>4135</v>
       </c>
       <c r="D120">
-        <v>1913</v>
+        <v>4297</v>
       </c>
       <c r="E120">
-        <v>1682</v>
+        <v>3532</v>
       </c>
       <c r="F120">
-        <v>1738</v>
+        <v>3605</v>
       </c>
       <c r="G120">
-        <v>1793</v>
+        <v>3706</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3562,22 +3565,22 @@
         <v>125</v>
       </c>
       <c r="B121">
-        <v>2303</v>
+        <v>1662</v>
       </c>
       <c r="C121">
-        <v>2768</v>
+        <v>1741</v>
       </c>
       <c r="D121">
-        <v>3014</v>
+        <v>1913</v>
       </c>
       <c r="E121">
-        <v>2404</v>
+        <v>1682</v>
       </c>
       <c r="F121">
-        <v>2635</v>
+        <v>1738</v>
       </c>
       <c r="G121">
-        <v>2720</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3585,22 +3588,22 @@
         <v>126</v>
       </c>
       <c r="B122">
-        <v>1908</v>
+        <v>2303</v>
       </c>
       <c r="C122">
-        <v>1853</v>
+        <v>2768</v>
       </c>
       <c r="D122">
-        <v>1858</v>
+        <v>3014</v>
       </c>
       <c r="E122">
-        <v>1189</v>
+        <v>2404</v>
       </c>
       <c r="F122">
-        <v>1159</v>
+        <v>2635</v>
       </c>
       <c r="G122">
-        <v>1148</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3608,22 +3611,22 @@
         <v>127</v>
       </c>
       <c r="B123">
-        <v>592</v>
+        <v>1908</v>
       </c>
       <c r="C123">
-        <v>571</v>
+        <v>1853</v>
       </c>
       <c r="D123">
-        <v>622</v>
+        <v>1858</v>
       </c>
       <c r="E123">
-        <v>533</v>
+        <v>1189</v>
       </c>
       <c r="F123">
-        <v>563</v>
+        <v>1159</v>
       </c>
       <c r="G123">
-        <v>558</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3631,22 +3634,22 @@
         <v>128</v>
       </c>
       <c r="B124">
-        <v>1843</v>
+        <v>592</v>
       </c>
       <c r="C124">
-        <v>1865</v>
+        <v>571</v>
       </c>
       <c r="D124">
-        <v>1864</v>
+        <v>622</v>
       </c>
       <c r="E124">
-        <v>901</v>
+        <v>533</v>
       </c>
       <c r="F124">
-        <v>861</v>
+        <v>563</v>
       </c>
       <c r="G124">
-        <v>841</v>
+        <v>558</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3654,22 +3657,22 @@
         <v>129</v>
       </c>
       <c r="B125">
-        <v>649</v>
+        <v>1843</v>
       </c>
       <c r="C125">
-        <v>437</v>
+        <v>1865</v>
       </c>
       <c r="D125">
-        <v>400</v>
+        <v>1864</v>
       </c>
       <c r="E125">
-        <v>112</v>
+        <v>901</v>
       </c>
       <c r="F125">
-        <v>104</v>
+        <v>861</v>
       </c>
       <c r="G125">
-        <v>100</v>
+        <v>841</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3677,22 +3680,22 @@
         <v>130</v>
       </c>
       <c r="B126">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="C126">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E126">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3700,22 +3703,22 @@
         <v>131</v>
       </c>
       <c r="B127">
-        <v>2364</v>
+        <v>959</v>
       </c>
       <c r="C127">
-        <v>2308</v>
+        <v>922</v>
       </c>
       <c r="D127">
-        <v>2482</v>
+        <v>917</v>
       </c>
       <c r="E127">
-        <v>592</v>
+        <v>124</v>
       </c>
       <c r="F127">
-        <v>548</v>
+        <v>103</v>
       </c>
       <c r="G127">
-        <v>523</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3723,22 +3726,22 @@
         <v>132</v>
       </c>
       <c r="B128">
-        <v>279</v>
+        <v>2364</v>
       </c>
       <c r="C128">
-        <v>397</v>
+        <v>2308</v>
       </c>
       <c r="D128">
-        <v>475</v>
+        <v>2482</v>
       </c>
       <c r="E128">
-        <v>136</v>
+        <v>592</v>
       </c>
       <c r="F128">
-        <v>132</v>
+        <v>548</v>
       </c>
       <c r="G128">
-        <v>132</v>
+        <v>523</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3746,22 +3749,22 @@
         <v>133</v>
       </c>
       <c r="B129">
-        <v>1188</v>
+        <v>279</v>
       </c>
       <c r="C129">
-        <v>1256</v>
+        <v>397</v>
       </c>
       <c r="D129">
-        <v>1241</v>
+        <v>475</v>
       </c>
       <c r="E129">
-        <v>783</v>
+        <v>136</v>
       </c>
       <c r="F129">
-        <v>860</v>
+        <v>132</v>
       </c>
       <c r="G129">
-        <v>921</v>
+        <v>132</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3769,22 +3772,22 @@
         <v>134</v>
       </c>
       <c r="B130">
-        <v>3623</v>
+        <v>1188</v>
       </c>
       <c r="C130">
-        <v>3726</v>
+        <v>1256</v>
       </c>
       <c r="D130">
-        <v>3781</v>
+        <v>1241</v>
       </c>
       <c r="E130">
-        <v>3645</v>
+        <v>783</v>
       </c>
       <c r="F130">
-        <v>3731</v>
+        <v>860</v>
       </c>
       <c r="G130">
-        <v>3829</v>
+        <v>921</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3792,22 +3795,22 @@
         <v>135</v>
       </c>
       <c r="B131">
-        <v>0</v>
+        <v>3623</v>
       </c>
       <c r="C131">
-        <v>0</v>
+        <v>3726</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>3781</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>3645</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>3731</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>3829</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3815,22 +3818,22 @@
         <v>136</v>
       </c>
       <c r="B132">
-        <v>0</v>
+        <v>4501</v>
       </c>
       <c r="C132">
-        <v>0</v>
+        <v>4812</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>4941</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>3834</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>3838</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>3845</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3838,22 +3841,22 @@
         <v>137</v>
       </c>
       <c r="B133">
-        <v>987</v>
+        <v>933</v>
       </c>
       <c r="C133">
-        <v>899</v>
+        <v>924</v>
       </c>
       <c r="D133">
-        <v>910</v>
+        <v>831</v>
       </c>
       <c r="E133">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="F133">
-        <v>220</v>
+        <v>184</v>
       </c>
       <c r="G133">
-        <v>230</v>
+        <v>182</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3861,22 +3864,22 @@
         <v>138</v>
       </c>
       <c r="B134">
-        <v>729</v>
+        <v>987</v>
       </c>
       <c r="C134">
-        <v>653</v>
+        <v>899</v>
       </c>
       <c r="D134">
-        <v>644</v>
+        <v>910</v>
       </c>
       <c r="E134">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="F134">
-        <v>255</v>
+        <v>220</v>
       </c>
       <c r="G134">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3884,21 +3887,44 @@
         <v>139</v>
       </c>
       <c r="B135">
+        <v>729</v>
+      </c>
+      <c r="C135">
+        <v>653</v>
+      </c>
+      <c r="D135">
+        <v>644</v>
+      </c>
+      <c r="E135">
+        <v>277</v>
+      </c>
+      <c r="F135">
+        <v>255</v>
+      </c>
+      <c r="G135">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+      <c r="B136">
         <v>612</v>
       </c>
-      <c r="C135">
+      <c r="C136">
         <v>571</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>552</v>
       </c>
-      <c r="E135">
+      <c r="E136">
         <v>145</v>
       </c>
-      <c r="F135">
+      <c r="F136">
         <v>129</v>
       </c>
-      <c r="G135">
+      <c r="G136">
         <v>127</v>
       </c>
     </row>
